--- a/tabular/drug_resistance/drugs.xlsx
+++ b/tabular/drug_resistance/drugs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="5780" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="7300" yWindow="3560" windowWidth="22580" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Drug</t>
   </si>
@@ -27,42 +27,6 @@
     <t>Drug category</t>
   </si>
   <si>
-    <t>Asunaprevir</t>
-  </si>
-  <si>
-    <t>Boceprevir</t>
-  </si>
-  <si>
-    <t>Grazoprevir</t>
-  </si>
-  <si>
-    <t>Paritaprevir</t>
-  </si>
-  <si>
-    <t>Simeprevir</t>
-  </si>
-  <si>
-    <t>Telaprevir</t>
-  </si>
-  <si>
-    <t>Daclatasvir</t>
-  </si>
-  <si>
-    <t>Elbasvir</t>
-  </si>
-  <si>
-    <t>Ledipasvir</t>
-  </si>
-  <si>
-    <t>Ombitasvir</t>
-  </si>
-  <si>
-    <t>Dasabuvir</t>
-  </si>
-  <si>
-    <t>Sofosbuvir</t>
-  </si>
-  <si>
     <t>NS3_inhibitor</t>
   </si>
   <si>
@@ -70,13 +34,79 @@
   </si>
   <si>
     <t>NS5B_inhibitor</t>
+  </si>
+  <si>
+    <t>asunaprevir</t>
+  </si>
+  <si>
+    <t>grazoprevir</t>
+  </si>
+  <si>
+    <t>paritaprevir</t>
+  </si>
+  <si>
+    <t>simeprevir</t>
+  </si>
+  <si>
+    <t>daclatasvir</t>
+  </si>
+  <si>
+    <t>elbasvir</t>
+  </si>
+  <si>
+    <t>ledipasvir</t>
+  </si>
+  <si>
+    <t>ombitasvir</t>
+  </si>
+  <si>
+    <t>dasabuvir</t>
+  </si>
+  <si>
+    <t>sofosbuvir</t>
+  </si>
+  <si>
+    <t>Company code</t>
+  </si>
+  <si>
+    <t>ABT-450</t>
+  </si>
+  <si>
+    <t>ABT-333</t>
+  </si>
+  <si>
+    <t>ABT-267</t>
+  </si>
+  <si>
+    <t>BMS-650032</t>
+  </si>
+  <si>
+    <t>BMS-790052</t>
+  </si>
+  <si>
+    <t>MK-8742</t>
+  </si>
+  <si>
+    <t>GS-5885</t>
+  </si>
+  <si>
+    <t>MK-5172</t>
+  </si>
+  <si>
+    <t>GS-7977</t>
+  </si>
+  <si>
+    <t>TMC-435</t>
+  </si>
+  <si>
+    <t>velpatasvir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,12 +117,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="Tahoma"/>
     </font>
     <font>
@@ -133,36 +157,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,141 +543,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="16">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="16">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="16">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="16">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="16">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="16">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="16">
-      <c r="A4" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="16">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="16">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="16">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="16">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="16">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="16">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="16">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="16">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/drug_resistance/drugs.xlsx
+++ b/tabular/drug_resistance/drugs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Drug</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>velpatasvir</t>
+  </si>
+  <si>
+    <t>GS-5816</t>
   </si>
 </sst>
 </file>
@@ -157,8 +160,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -189,7 +194,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -202,6 +207,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -214,6 +220,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,7 +553,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A12" sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -670,6 +677,9 @@
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="16">
       <c r="A11" s="2" t="s">

--- a/tabular/drug_resistance/drugs.xlsx
+++ b/tabular/drug_resistance/drugs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Drug</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>GS-5816</t>
+  </si>
+  <si>
+    <t>Drug sub-category</t>
+  </si>
+  <si>
+    <t>nucleotide_analogue</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>non_nucleoside_palm_1_inhibitor</t>
   </si>
 </sst>
 </file>
@@ -550,138 +565,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:C12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="2" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16">
+    <row r="2" spans="1:7" ht="16">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="16">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="16">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="16">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="16">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="16">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="16">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="16">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="16">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="16">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="16">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="16">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="16">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16">
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -689,18 +774,28 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="16">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
